--- a/MMA ML Project/Skill Estimates/Skill Estimates Pre-2023-05-05/Middleweight/All_Intercepts.xlsx
+++ b/MMA ML Project/Skill Estimates/Skill Estimates Pre-2023-05-05/Middleweight/All_Intercepts.xlsx
@@ -1,21 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Test MMA Project\MMA ML Project\Skill Estimates\Skill Estimates Pre-2023-05-05\Middleweight\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F306B7E7-ACC3-4ADE-82A8-8ED30142B065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3600" yWindow="834" windowWidth="10902" windowHeight="11526" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Skill Estimate Name</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Std. Error</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Standing Shot Probability</t>
+  </si>
+  <si>
+    <t>Takedown Attempt Probability</t>
+  </si>
+  <si>
+    <t>Submission Attempt Probability</t>
+  </si>
+  <si>
+    <t>Ground Shot Probability</t>
+  </si>
+  <si>
+    <t>Standing Head Accuracy</t>
+  </si>
+  <si>
+    <t>Standing Head Shot Probability</t>
+  </si>
+  <si>
+    <t>Ground Head Shot Probability</t>
+  </si>
+  <si>
+    <t>Standing Body Accuracy</t>
+  </si>
+  <si>
+    <t>Ground Head Accuracy</t>
+  </si>
+  <si>
+    <t>Ground Body Accuracy</t>
+  </si>
+  <si>
+    <t>Takedown Accuracy</t>
+  </si>
+  <si>
+    <t>Submission Accuracy</t>
+  </si>
+  <si>
+    <t>Knockout Probability</t>
+  </si>
+  <si>
+    <t>Ground Control</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +131,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +183,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +252,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,285 +428,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Skill Estimate Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Std. Error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>z</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Standing Shot Probability</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
         <v>-2.051149736559216</v>
       </c>
       <c r="C2">
-        <v>0.08566631456765732</v>
+        <v>8.5666314567657317E-2</v>
       </c>
       <c r="D2">
-        <v>-23.94348054904666</v>
+        <v>-23.943480549046662</v>
       </c>
       <c r="E2">
         <v>1.08043864588288E-126</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Takedown Attempt Probability</t>
-        </is>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-5.229666631760675</v>
+        <v>-5.2296666317606748</v>
       </c>
       <c r="C3">
         <v>0.1457042758320542</v>
       </c>
       <c r="D3">
-        <v>-35.89233467512402</v>
+        <v>-35.892334675124019</v>
       </c>
       <c r="E3">
-        <v>4.02313786609147E-282</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Submission Attempt Probability</t>
-        </is>
+        <v>4.0231378660914702E-282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-6.187252946663204</v>
+        <v>-6.1872529466632038</v>
       </c>
       <c r="C4">
-        <v>0.1830377861340722</v>
+        <v>0.18303778613407221</v>
       </c>
       <c r="D4">
-        <v>-33.80314566376553</v>
+        <v>-33.803145663765527</v>
       </c>
       <c r="E4">
         <v>1.77309462879442E-250</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ground Shot Probability</t>
-        </is>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>-3.028303059840203</v>
+        <v>-3.0283030598402032</v>
       </c>
       <c r="C5">
-        <v>0.1439651030172686</v>
+        <v>0.14396510301726859</v>
       </c>
       <c r="D5">
         <v>-21.03497998037037</v>
       </c>
       <c r="E5">
-        <v>3.13905625562009E-98</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Standing Head Accuracy</t>
-        </is>
+        <v>3.1390562556200898E-98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.5341344799316907</v>
+        <v>-0.53413447993169072</v>
       </c>
       <c r="C6">
         <v>0.1224665388102886</v>
       </c>
       <c r="D6">
-        <v>-4.36147281633485</v>
+        <v>-4.3614728163348504</v>
       </c>
       <c r="E6">
-        <v>1.291898491707148E-05</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Standing Head Shot Probability</t>
-        </is>
+        <v>1.291898491707148E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>1.639593390701301</v>
+        <v>1.6395933907013009</v>
       </c>
       <c r="C7">
-        <v>0.08359545214233298</v>
+        <v>8.3595452142332979E-2</v>
       </c>
       <c r="D7">
-        <v>19.61342810742459</v>
+        <v>19.613428107424589</v>
       </c>
       <c r="E7">
-        <v>1.187515384506441E-85</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Ground Head Shot Probability</t>
-        </is>
+        <v>1.1875153845064411E-85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>1.689978093964228</v>
+        <v>1.6899780939642279</v>
       </c>
       <c r="C8">
-        <v>0.1113427024654784</v>
+        <v>0.11134270246547839</v>
       </c>
       <c r="D8">
-        <v>15.17816665612371</v>
+        <v>15.178166656123709</v>
       </c>
       <c r="E8">
-        <v>4.933799503079824E-52</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Standing Body Accuracy</t>
-        </is>
+        <v>4.9337995030798239E-52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1.087794540026761</v>
       </c>
       <c r="C9">
-        <v>0.1459230413707855</v>
+        <v>0.14592304137078549</v>
       </c>
       <c r="D9">
-        <v>7.454576945547016</v>
+        <v>7.4545769455470161</v>
       </c>
       <c r="E9">
-        <v>9.015664814769493E-14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Ground Head Accuracy</t>
-        </is>
+        <v>9.0156648147694933E-14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0.3979485514502985</v>
       </c>
       <c r="C10">
-        <v>0.1600883441084495</v>
+        <v>0.16008834410844949</v>
       </c>
       <c r="D10">
-        <v>2.485805907147831</v>
+        <v>2.4858059071478311</v>
       </c>
       <c r="E10">
-        <v>0.01292584417028821</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ground Body Accuracy</t>
-        </is>
+        <v>1.2925844170288209E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>2.219227254820434</v>
+        <v>2.2192272548204341</v>
       </c>
       <c r="C11">
         <v>0.236071920934916</v>
       </c>
       <c r="D11">
-        <v>9.400640474443659</v>
+        <v>9.4006404744436587</v>
       </c>
       <c r="E11">
-        <v>5.423193652657531E-21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Takedown Accuracy</t>
-        </is>
+        <v>5.4231936526575309E-21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.3881611202067929</v>
+        <v>-0.38816112020679289</v>
       </c>
       <c r="C12">
-        <v>0.1714013557466924</v>
+        <v>0.17140135574669241</v>
       </c>
       <c r="D12">
-        <v>-2.26463273009603</v>
+        <v>-2.2646327300960301</v>
       </c>
       <c r="E12">
-        <v>0.02353522667529679</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Submission Accuracy</t>
-        </is>
+        <v>2.353522667529679E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-1.206128065320997</v>
+        <v>-1.2061280653209969</v>
       </c>
       <c r="C13">
-        <v>0.2600849529244189</v>
+        <v>0.26008495292441891</v>
       </c>
       <c r="D13">
         <v>-4.637438851264494</v>
       </c>
       <c r="E13">
-        <v>3.527529220637146E-06</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Knockout Probability</t>
-        </is>
+        <v>3.527529220637146E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-4.292953327481777</v>
+        <v>-4.2929533274817766</v>
       </c>
       <c r="C14">
-        <v>0.1883220128063688</v>
+        <v>0.18832201280636879</v>
       </c>
       <c r="D14">
         <v>-22.7958126801446</v>
       </c>
       <c r="E14">
-        <v>5.045336738674479E-115</v>
+        <v>5.0453367386744791E-115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>4.4826277791385136</v>
+      </c>
+      <c r="C15">
+        <v>0.17735985067653659</v>
+      </c>
+      <c r="D15">
+        <v>25.274196849171862</v>
+      </c>
+      <c r="E15">
+        <v>7.1549535555067994E-72</v>
       </c>
     </row>
   </sheetData>
